--- a/DATA_goal/Junction_Flooding_346.xlsx
+++ b/DATA_goal/Junction_Flooding_346.xlsx
@@ -444,17 +444,17 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
@@ -463,7 +463,7 @@
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
@@ -655,103 +655,103 @@
         <v>45027.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.35</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1</v>
+        <v>10.02</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.94</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.15</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.85</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.6</v>
+        <v>6.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.4</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.74</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.05</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>5.46</v>
+        <v>54.64</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.3</v>
+        <v>2.96</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.52</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.16</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45027.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.74</v>
+        <v>17.37</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.38</v>
+        <v>13.77</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.8</v>
+        <v>37.95</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.17</v>
+        <v>31.7</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.41</v>
+        <v>14.07</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.82</v>
+        <v>48.21</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.14</v>
+        <v>21.36</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.59</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.21</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.69</v>
+        <v>16.87</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.13</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.16</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.47</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.99</v>
+        <v>19.87</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.14</v>
+        <v>11.43</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>20.4</v>
+        <v>204.02</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.87</v>
+        <v>38.72</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.23</v>
+        <v>12.32</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.59</v>
+        <v>25.88</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.89</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.51</v>
+        <v>25.1</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.12</v>
+        <v>11.17</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.31</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.7</v>
+        <v>17.04</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.36</v>
+        <v>43.56</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.39</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.58</v>
+        <v>15.82</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45027.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.75</v>
+        <v>17.51</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.61</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.82</v>
+        <v>38.2</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.18</v>
+        <v>31.79</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.4</v>
+        <v>14.02</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.41</v>
+        <v>54.06</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.14</v>
+        <v>21.44</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.49</v>
+        <v>14.93</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.64</v>
+        <v>16.41</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.62</v>
+        <v>16.22</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.61</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.99</v>
+        <v>19.9</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.48</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>20.42</v>
+        <v>204.18</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.89</v>
+        <v>38.86</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.47</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.61</v>
+        <v>26.11</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.42</v>
+        <v>14.18</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.85</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.68</v>
+        <v>26.85</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.21</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.63</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.46</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.68</v>
+        <v>16.78</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.91</v>
+        <v>49.07</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.41</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.59</v>
+        <v>15.88</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45027.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.05</v>
+        <v>20.46</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.57</v>
+        <v>15.71</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.85</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.46</v>
+        <v>44.59</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.7</v>
+        <v>37.02</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.28</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.29</v>
+        <v>62.94</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.5</v>
+        <v>24.97</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.23</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.71</v>
+        <v>17.14</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.87</v>
+        <v>18.7</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.89</v>
+        <v>18.93</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.94</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.31</v>
+        <v>23.13</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.37</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>23.86</v>
+        <v>238.58</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.52</v>
+        <v>45.16</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.46</v>
+        <v>14.63</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.04</v>
+        <v>30.45</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.64</v>
+        <v>16.35</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.14</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.1</v>
+        <v>30.99</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.08</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.07</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.43</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.93</v>
+        <v>19.31</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.7</v>
+        <v>57.04</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.85</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_346.xlsx
+++ b/DATA_goal/Junction_Flooding_346.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>45027.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.35</v>
+        <v>4.347</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.03</v>
+        <v>5.032</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.78</v>
+        <v>0.777</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.02</v>
+        <v>10.022</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>8.94</v>
+        <v>8.942</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.48</v>
+        <v>4.483</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>9.15</v>
+        <v>9.151999999999999</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>5.85</v>
+        <v>5.852</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.5</v>
+        <v>2.498</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>6.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.4</v>
+        <v>7.398</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.26</v>
+        <v>4.257</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>0.73</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.37</v>
+        <v>3.371</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.74</v>
+        <v>5.736</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.05</v>
+        <v>3.045</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.14</v>
+        <v>0.138</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.23</v>
+        <v>0.227</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>54.64</v>
+        <v>54.637</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>11.07</v>
+        <v>11.069</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.96</v>
+        <v>2.959</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>6.58</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.91</v>
+        <v>4.913</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.755</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.64</v>
+        <v>5.641</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>3.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.177</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.52</v>
+        <v>2.517</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.42</v>
+        <v>6.419</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.192</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>7.16</v>
+        <v>7.159</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.01</v>
+        <v>2.015</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>4.4</v>
+        <v>4.399</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45027.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.37</v>
+        <v>17.365</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.77</v>
+        <v>13.774</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.91</v>
+        <v>0.909</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>37.95</v>
+        <v>37.953</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>31.7</v>
+        <v>31.699</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.07</v>
+        <v>14.067</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>48.21</v>
+        <v>48.215</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>21.36</v>
+        <v>21.357</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.59</v>
+        <v>9.587999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15.21</v>
+        <v>15.208</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>16.87</v>
+        <v>16.866</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.13</v>
+        <v>16.125</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.16</v>
+        <v>4.155</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.47</v>
+        <v>13.471</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>19.87</v>
+        <v>19.872</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>11.43</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.142</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.53</v>
+        <v>0.527</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>204.02</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>38.72</v>
+        <v>38.724</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.32</v>
+        <v>12.324</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>25.88</v>
+        <v>25.879</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.32</v>
+        <v>14.318</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.89</v>
+        <v>1.888</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>25.1</v>
+        <v>25.098</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.17</v>
+        <v>11.171</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11</v>
+        <v>10.996</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.31</v>
+        <v>11.312</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>17.04</v>
+        <v>17.036</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.115</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>43.56</v>
+        <v>43.563</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.39</v>
+        <v>7.391</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>15.82</v>
+        <v>15.815</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45027.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.51</v>
+        <v>17.508</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.61</v>
+        <v>13.613</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>38.2</v>
+        <v>38.201</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>31.79</v>
+        <v>31.789</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.02</v>
+        <v>14.023</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>54.06</v>
+        <v>54.055</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>21.44</v>
+        <v>21.442</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>9.645</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>14.93</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.41</v>
+        <v>16.409</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>16.22</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.26</v>
+        <v>4.257</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.61</v>
+        <v>13.606</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>19.9</v>
+        <v>19.904</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.48</v>
+        <v>11.482</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.502</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>204.18</v>
+        <v>204.177</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>38.86</v>
+        <v>38.859</v>
       </c>
       <c r="V4" s="4" t="n">
         <v>12.47</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>26.11</v>
+        <v>26.109</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.18</v>
+        <v>14.184</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.85</v>
+        <v>1.854</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>26.85</v>
+        <v>26.847</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.21</v>
+        <v>11.215</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.63</v>
+        <v>10.633</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.46</v>
+        <v>11.461</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>16.78</v>
+        <v>16.782</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.092</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>49.07</v>
+        <v>49.066</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.41</v>
+        <v>7.414</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.88</v>
+        <v>15.878</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>18.52</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45027.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>17.61</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>38.39</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>31.86</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>55.47</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.73</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>19.91</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>204.28</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>38.89</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.23</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>27.08</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>16.59</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>50.29</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.94</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_346.xlsx
+++ b/DATA_goal/Junction_Flooding_346.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -967,103 +967,207 @@
         <v>45027.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>20.46</v>
+        <v>20.457</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.71</v>
+        <v>15.706</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.85</v>
+        <v>0.853</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>44.59</v>
+        <v>44.593</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>37.02</v>
+        <v>37.018</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.28</v>
+        <v>16.276</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>62.94</v>
+        <v>62.944</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>24.97</v>
+        <v>24.966</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.23</v>
+        <v>11.229</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.14</v>
+        <v>17.142</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>18.7</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>18.93</v>
+        <v>18.929</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.03</v>
+        <v>5.033</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.94</v>
+        <v>15.936</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>23.13</v>
+        <v>23.133</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.37</v>
+        <v>13.368</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.16</v>
+        <v>0.161</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.577</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>238.58</v>
+        <v>238.579</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>45.16</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.63</v>
+        <v>14.633</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>30.45</v>
+        <v>30.448</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>16.35</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.14</v>
+        <v>2.137</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>30.99</v>
+        <v>30.994</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.08</v>
+        <v>13.081</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>12.07</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.43</v>
+        <v>13.427</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>19.31</v>
+        <v>19.306</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>57.04</v>
+        <v>57.037</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.6</v>
+        <v>8.598000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>18.52</v>
+        <v>18.517</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45027.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>38.39</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>31.86</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>55.47</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>19.91</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>204.28</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>38.89</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>26.23</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>16.59</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>50.29</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>15.94</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_346.xlsx
+++ b/DATA_goal/Junction_Flooding_346.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -967,207 +967,103 @@
         <v>45027.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>20.457</v>
+        <v>20.46</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.706</v>
+        <v>15.71</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.853</v>
+        <v>0.85</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>44.593</v>
+        <v>44.59</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>37.018</v>
+        <v>37.02</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.276</v>
+        <v>16.28</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>62.944</v>
+        <v>62.94</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>24.966</v>
+        <v>24.97</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.229</v>
+        <v>11.23</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.142</v>
+        <v>17.14</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>18.7</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>18.929</v>
+        <v>18.93</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.033</v>
+        <v>5.03</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.936</v>
+        <v>15.94</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>23.133</v>
+        <v>23.13</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.368</v>
+        <v>13.37</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.161</v>
+        <v>0.16</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.577</v>
+        <v>0.58</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>238.579</v>
+        <v>238.58</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>45.16</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.633</v>
+        <v>14.63</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>30.448</v>
+        <v>30.45</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>16.35</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.137</v>
+        <v>2.14</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>30.994</v>
+        <v>30.99</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.081</v>
+        <v>13.08</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>12.07</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.427</v>
+        <v>13.43</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>19.306</v>
+        <v>19.31</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>57.037</v>
+        <v>57.04</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.598000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>18.517</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45027.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>17.61</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>38.39</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>31.86</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>55.47</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.73</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>19.91</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>204.28</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>38.89</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.23</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>27.08</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>16.59</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>50.29</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.94</v>
+        <v>18.52</v>
       </c>
     </row>
   </sheetData>
